--- a/smartgrid/dbdata/Spreadsheets/UCDavis.xlsx
+++ b/smartgrid/dbdata/Spreadsheets/UCDavis.xlsx
@@ -424,8 +424,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -442,13 +444,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -780,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:E60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
